--- a/artfynd/A 49753-2022.xlsx
+++ b/artfynd/A 49753-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,6 +1574,119 @@
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111906849</v>
+      </c>
+      <c r="B10" t="n">
+        <v>88967</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6039940</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mandarinfingersvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ramaria tridentina</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Schild</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Torrkölen (Torrkölen), Nb</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>813178.8074009671</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7316199.822832054</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Boden</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Överluleå</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Linnea Åsedahl</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Linnea Åsedahl</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 49753-2022.xlsx
+++ b/artfynd/A 49753-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,119 +1574,6 @@
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>111906849</v>
-      </c>
-      <c r="B10" t="n">
-        <v>88967</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>6039940</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Mandarinfingersvamp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Ramaria tridentina</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Schild</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Torrkölen (Torrkölen), Nb</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>813178.8074009671</v>
-      </c>
-      <c r="R10" t="n">
-        <v>7316199.822832054</v>
-      </c>
-      <c r="S10" t="n">
-        <v>20</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Norrbotten</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Boden</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Norrbotten</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Överluleå</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>11:11</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>11:11</t>
-        </is>
-      </c>
-      <c r="AD10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>Linnea Åsedahl</t>
-        </is>
-      </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>Linnea Åsedahl</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 49753-2022.xlsx
+++ b/artfynd/A 49753-2022.xlsx
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>813178.8074009671</v>
+        <v>813179</v>
       </c>
       <c r="R10" t="n">
-        <v>7316199.822832054</v>
+        <v>7316200</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>

--- a/artfynd/A 49753-2022.xlsx
+++ b/artfynd/A 49753-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1579,7 +1579,7 @@
         <v>111906849</v>
       </c>
       <c r="B10" t="n">
-        <v>88967</v>
+        <v>89101</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1686,6 +1686,108 @@
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112365064</v>
+      </c>
+      <c r="B11" t="n">
+        <v>95693</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>221941</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plattlummer</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Flarken, Nb</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>813211</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7316203</v>
+      </c>
+      <c r="S11" t="n">
+        <v>25</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Boden</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Överluleå</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Linnea Åsedahl</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Linnea Åsedahl</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 49753-2022.xlsx
+++ b/artfynd/A 49753-2022.xlsx
@@ -1579,7 +1579,7 @@
         <v>111906849</v>
       </c>
       <c r="B10" t="n">
-        <v>89101</v>
+        <v>89115</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>112365064</v>
       </c>
       <c r="B11" t="n">
-        <v>95693</v>
+        <v>95707</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
